--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Users\TuanNNSE02189\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -279,8 +284,8 @@
     <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$36</definedName>
     <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$58</definedName>
     <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$83</definedName>
+    <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -305,18 +310,18 @@
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
+    <definedName name="ＰＤ">#REF!</definedName>
+    <definedName name="ＰＤ保守">#REF!</definedName>
+    <definedName name="ＰＲ">#REF!</definedName>
+    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
     <definedName name="PBNEC">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
-    <definedName name="ＰＤ">#REF!</definedName>
-    <definedName name="ＰＤ保守">#REF!</definedName>
-    <definedName name="ＰＲ">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$42</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
-    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,20 +1266,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="169" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="174" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="175" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="171" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0&quot;人月&quot;"/>
+    <numFmt numFmtId="175" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -1286,7 +1291,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2583,7 +2588,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2625,15 +2630,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="8" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -2791,7 +2796,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2807,7 +2812,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2886,19 +2891,19 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2908,8 +2913,8 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="175" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
@@ -2927,7 +2932,7 @@
     <xf numFmtId="49" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="29" borderId="36">
+    <xf numFmtId="177" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="36"/>
@@ -3004,7 +3009,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3253,6 +3258,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3273,24 +3296,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3608,6 +3613,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3759,14 +3767,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3790,7 +3798,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4743450" y="104775"/>
+          <a:off x="4743450" y="2152650"/>
           <a:ext cx="3295650" cy="3943350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3826,15 +3834,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3858,7 +3866,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8277225" y="123825"/>
+          <a:off x="8867775" y="2152650"/>
           <a:ext cx="2724150" cy="3943349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6373,7 +6381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6408,7 +6416,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6639,14 +6647,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6661,12 +6669,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6678,12 +6686,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6692,15 +6700,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6709,11 +6717,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6736,10 +6744,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6757,10 +6765,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6774,8 +6782,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6783,8 +6791,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6792,8 +6800,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6801,8 +6809,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6810,8 +6818,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6819,8 +6827,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6828,6 +6836,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6835,12 +6849,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6856,8 +6864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A33" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8815,7 +8823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Users\TuanNNSE02189\test view point\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -280,12 +275,12 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$74</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$36</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$58</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$73</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$35</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$57</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$82</definedName>
+    <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -310,18 +305,18 @@
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
-    <definedName name="ＰＤ">#REF!</definedName>
-    <definedName name="ＰＤ保守">#REF!</definedName>
-    <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
     <definedName name="PBNEC">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$42</definedName>
+    <definedName name="ＰＤ">#REF!</definedName>
+    <definedName name="ＰＤ保守">#REF!</definedName>
+    <definedName name="ＰＲ">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$41</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
+    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
@@ -487,7 +482,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -556,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="211">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1018,12 +1013,6 @@
     <t>Contribute content Screen</t>
   </si>
   <si>
-    <t>- Items:
-+ "Từ vựng" link
-+ "Ngữ pháp" link
-+ "Chữ Hán" link</t>
-  </si>
-  <si>
     <t>1.1.1.3</t>
   </si>
   <si>
@@ -1042,34 +1031,6 @@
     <t>Content of "Chữ Hán"</t>
   </si>
   <si>
-    <t>- Items:
-+ "Nhập từ" field
-+ "Loại từ" field
-+ "Chữ Hán" field
-+ "Nhập nghĩa" field
-+ "Mã xác nhận" field
-+ "Đóng góp" button</t>
-  </si>
-  <si>
-    <t>- Items:
-+ "Tên ngữ pháp" field
-+ "Cấu trúc" field
-+ "Cách dùng" field
-+ "Ví dụ" field
-+ "Mã xác nhận" field
-+ "Đóng góp" button</t>
-  </si>
-  <si>
-    <t>- Items:
-+ "Chữ Hán" field
-+ "Âm Hán" field
-+ "Âm Ôn" field
-+ "Âm Kun" field
-+ "Nhập nghĩa" field
-+ "Mã xác nhận" field
-+ "Đóng góp" button</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contribute "Từ vựng" </t>
   </si>
   <si>
@@ -1088,9 +1049,6 @@
     <t>Mã xác nhận</t>
   </si>
   <si>
-    <t>Can type max 100 characters</t>
-  </si>
-  <si>
     <t>Input information  in "Chữ Hán" textbox</t>
   </si>
   <si>
@@ -1107,9 +1065,6 @@
   </si>
   <si>
     <t>Input word  in "Nhập từ" textbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input the verification code </t>
   </si>
   <si>
     <t>Input information of "Từ vựng"</t>
@@ -1140,9 +1095,6 @@
     <t>1.2.3.4</t>
   </si>
   <si>
-    <t>1.2.3.5</t>
-  </si>
-  <si>
     <t>1.2.4</t>
   </si>
   <si>
@@ -1164,16 +1116,10 @@
     <t>Cách dùng</t>
   </si>
   <si>
-    <t>VÍ dụ</t>
-  </si>
-  <si>
     <t>Input information  in "Ngữ pháp" textbox</t>
   </si>
   <si>
     <t>Input information  in "Cách dùng" textbox</t>
-  </si>
-  <si>
-    <t>Input example  in "Ví dụ" textbox</t>
   </si>
   <si>
     <t>1.2.5</t>
@@ -1259,6 +1205,30 @@
     <t>- Web title: Đóng góp database
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word that user input is displayed </t>
+  </si>
+  <si>
+    <t>- Display full item (Contribute vocabulary, grammar, kanji)
+- Title is centered
+- All items is left-aligned
+- Text's color is black</t>
+  </si>
+  <si>
+    <t>- Display full item
+- Title is centered
+- All items (text and textbox, button) is left-aligned
+- Text's color is black and  required fields marked in red</t>
+  </si>
+  <si>
+    <t>- Display full item
+- Title is centered
+- All items (text and textbox, button) is left-aligned
+- - Text's color is black and  required fields marked in red</t>
   </si>
 </sst>
 </file>
@@ -1266,20 +1236,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="171" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="175" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="169" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0&quot;人月&quot;"/>
+    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="174" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="175" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -1291,7 +1261,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2588,7 +2558,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2630,15 +2600,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -2796,7 +2766,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2812,7 +2782,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="173" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2891,19 +2861,19 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2913,8 +2883,8 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
@@ -2932,7 +2902,7 @@
     <xf numFmtId="49" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="29" borderId="36">
+    <xf numFmtId="175" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="36"/>
@@ -3009,7 +2979,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3258,6 +3228,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3275,27 +3266,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6381,7 +6351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6416,7 +6386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6647,14 +6617,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6669,12 +6639,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6686,12 +6656,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6700,15 +6670,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6717,11 +6687,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6744,10 +6714,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6765,10 +6735,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6782,8 +6752,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6791,8 +6761,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6800,8 +6770,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6809,8 +6779,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6818,8 +6788,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6827,8 +6797,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6836,12 +6806,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6849,6 +6813,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6862,10 +6832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A33" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7058,10 +7028,10 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="70.5" customHeight="1">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -7086,20 +7056,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="44" customFormat="1" ht="105" customHeight="1">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -7114,20 +7084,20 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="44" customFormat="1" ht="101.25" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="44" customFormat="1" ht="74.25" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
       <c r="G12" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>35</v>
@@ -7142,20 +7112,20 @@
         <v>41</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="44" customFormat="1" ht="111" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="44" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -7170,7 +7140,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1">
@@ -7200,7 +7170,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -7219,7 +7189,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -7231,10 +7201,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -7247,7 +7217,7 @@
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -7259,13 +7229,13 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
@@ -7275,7 +7245,7 @@
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -7287,13 +7257,13 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="49" t="s">
@@ -7303,7 +7273,7 @@
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -7315,13 +7285,13 @@
         <v>37</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="27">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
@@ -7331,7 +7301,7 @@
       <c r="E20" s="64"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7343,13 +7313,13 @@
         <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="49" t="s">
@@ -7358,7 +7328,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="61"/>
       <c r="F21" s="51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -7377,7 +7347,7 @@
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7389,17 +7359,17 @@
         <v>37</v>
       </c>
       <c r="K22" s="59" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L22" s="56" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
@@ -7409,22 +7379,22 @@
       <c r="I23" s="57"/>
       <c r="J23" s="58"/>
       <c r="K23" s="59" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="61"/>
       <c r="F24" s="51" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7433,17 +7403,17 @@
       <c r="K24" s="52"/>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" spans="1:12" s="44" customFormat="1" ht="22.5" customHeight="1">
+    <row r="25" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="56"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7455,23 +7425,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="27.75" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="56"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7483,23 +7453,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="44" customFormat="1" ht="25.5" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="35.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="64"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7511,23 +7481,23 @@
         <v>37</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="49" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="64"/>
       <c r="F28" s="63"/>
       <c r="G28" s="63" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>35</v>
@@ -7539,135 +7509,135 @@
         <v>37</v>
       </c>
       <c r="K28" s="56" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="L28" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D29" s="60"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="L29" s="62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
+      <c r="E29" s="61"/>
+      <c r="F29" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="55"/>
+    </row>
+    <row r="30" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
-      <c r="C30" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="55"/>
+      <c r="C30" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="56" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="63"/>
+        <v>199</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="64"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>37</v>
-      </c>
+      <c r="G31" s="56"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
       <c r="K31" s="59" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="L31" s="56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="44" customFormat="1" ht="27">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="48" t="s">
-        <v>208</v>
+      <c r="C32" s="49" t="s">
+        <v>179</v>
       </c>
       <c r="D32" s="60"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="L32" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
+      <c r="E32" s="61"/>
+      <c r="F32" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="55"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1" ht="25.5" customHeight="1">
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="55"/>
-    </row>
-    <row r="34" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
+        <v>180</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="49" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="56"/>
       <c r="F34" s="62"/>
       <c r="G34" s="62" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>35</v>
@@ -7679,23 +7649,23 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63" t="s">
         <v>190</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62" t="s">
-        <v>198</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>35</v>
@@ -7707,23 +7677,23 @@
         <v>37</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L35" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="44" customFormat="1" ht="22.5" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="49" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="64"/>
       <c r="F36" s="63"/>
       <c r="G36" s="63" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H36" s="49" t="s">
         <v>35</v>
@@ -7735,23 +7705,23 @@
         <v>37</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="L36" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D37" s="60"/>
       <c r="E37" s="64"/>
       <c r="F37" s="63"/>
       <c r="G37" s="63" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H37" s="49" t="s">
         <v>35</v>
@@ -7763,23 +7733,23 @@
         <v>37</v>
       </c>
       <c r="K37" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="L37" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="L37" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
+    </row>
+    <row r="38" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="64"/>
       <c r="F38" s="63"/>
       <c r="G38" s="63" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="H38" s="49" t="s">
         <v>35</v>
@@ -7791,128 +7761,114 @@
         <v>37</v>
       </c>
       <c r="K38" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="L38" s="62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="44" customFormat="1" ht="27">
+    </row>
+    <row r="39" spans="1:12" s="44" customFormat="1">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="49" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D39" s="60"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="L39" s="62" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="44" customFormat="1">
+      <c r="E39" s="61"/>
+      <c r="F39" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="55"/>
+    </row>
+    <row r="40" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
-      <c r="C40" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="55"/>
+      <c r="C40" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K40" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="L40" s="56" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="63"/>
       <c r="F41" s="56"/>
-      <c r="G41" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="H41" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="58" t="s">
-        <v>37</v>
-      </c>
+      <c r="G41" s="56"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="58"/>
       <c r="K41" s="59" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="L41" s="56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="44" customFormat="1" ht="27">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="L42" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="44" customFormat="1">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="44" customFormat="1">
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="75"/>
+    </row>
+    <row r="43" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A43" s="65"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
       <c r="D43" s="66"/>
       <c r="E43" s="67"/>
       <c r="F43" s="67"/>
-      <c r="G43" s="72"/>
+      <c r="G43" s="76"/>
       <c r="H43" s="66"/>
       <c r="I43" s="68"/>
       <c r="J43" s="69"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="75"/>
-    </row>
-    <row r="44" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+    </row>
+    <row r="44" spans="1:12" s="44" customFormat="1">
       <c r="A44" s="65"/>
       <c r="B44" s="66"/>
       <c r="C44" s="66"/>
       <c r="D44" s="66"/>
       <c r="E44" s="67"/>
       <c r="F44" s="67"/>
-      <c r="G44" s="76"/>
+      <c r="G44" s="72"/>
       <c r="H44" s="66"/>
       <c r="I44" s="68"/>
       <c r="J44" s="69"/>
@@ -8088,32 +8044,32 @@
       <c r="L56" s="73"/>
     </row>
     <row r="57" spans="1:12" s="44" customFormat="1">
-      <c r="A57" s="65"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="73"/>
-      <c r="L57" s="73"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="71"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
     </row>
     <row r="58" spans="1:12" s="44" customFormat="1">
-      <c r="A58" s="70"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
     </row>
     <row r="59" spans="1:12" s="44" customFormat="1">
       <c r="A59" s="65"/>
@@ -8127,11 +8083,11 @@
       <c r="I59" s="68"/>
       <c r="J59" s="69"/>
       <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
+      <c r="L59" s="73"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
       <c r="A60" s="65"/>
-      <c r="B60" s="66"/>
+      <c r="B60" s="74"/>
       <c r="C60" s="66"/>
       <c r="D60" s="66"/>
       <c r="E60" s="67"/>
@@ -8150,7 +8106,7 @@
       <c r="D61" s="66"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
-      <c r="G61" s="72"/>
+      <c r="G61" s="67"/>
       <c r="H61" s="66"/>
       <c r="I61" s="68"/>
       <c r="J61" s="69"/>
@@ -8257,8 +8213,8 @@
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
       <c r="A69" s="65"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="74"/>
       <c r="D69" s="66"/>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
@@ -8267,14 +8223,14 @@
       <c r="I69" s="68"/>
       <c r="J69" s="69"/>
       <c r="K69" s="67"/>
-      <c r="L69" s="73"/>
+      <c r="L69" s="67"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
       <c r="A70" s="65"/>
-      <c r="B70" s="66"/>
+      <c r="B70" s="74"/>
       <c r="C70" s="74"/>
       <c r="D70" s="66"/>
-      <c r="E70" s="67"/>
+      <c r="E70" s="72"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
       <c r="H70" s="66"/>
@@ -8300,15 +8256,15 @@
     <row r="72" spans="1:13" s="44" customFormat="1">
       <c r="A72" s="65"/>
       <c r="B72" s="74"/>
-      <c r="C72" s="74"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="66"/>
       <c r="E72" s="72"/>
       <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
+      <c r="G72" s="72"/>
       <c r="H72" s="66"/>
       <c r="I72" s="68"/>
       <c r="J72" s="69"/>
-      <c r="K72" s="67"/>
+      <c r="K72" s="73"/>
       <c r="L72" s="67"/>
     </row>
     <row r="73" spans="1:13" s="44" customFormat="1">
@@ -8322,16 +8278,16 @@
       <c r="H73" s="66"/>
       <c r="I73" s="68"/>
       <c r="J73" s="69"/>
-      <c r="K73" s="73"/>
+      <c r="K73" s="67"/>
       <c r="L73" s="67"/>
     </row>
     <row r="74" spans="1:13" s="44" customFormat="1">
       <c r="A74" s="65"/>
-      <c r="B74" s="74"/>
+      <c r="B74" s="66"/>
       <c r="C74" s="66"/>
       <c r="D74" s="66"/>
       <c r="E74" s="72"/>
-      <c r="F74" s="67"/>
+      <c r="F74" s="72"/>
       <c r="G74" s="72"/>
       <c r="H74" s="66"/>
       <c r="I74" s="68"/>
@@ -8354,32 +8310,32 @@
       <c r="L75" s="67"/>
     </row>
     <row r="76" spans="1:13" s="44" customFormat="1">
-      <c r="A76" s="65"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
+      <c r="A76" s="70"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="71"/>
+      <c r="K76" s="71"/>
+      <c r="L76" s="70"/>
     </row>
     <row r="77" spans="1:13" s="44" customFormat="1">
-      <c r="A77" s="70"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="71"/>
-      <c r="I77" s="71"/>
-      <c r="J77" s="71"/>
-      <c r="K77" s="71"/>
-      <c r="L77" s="70"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="68"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
     </row>
     <row r="78" spans="1:13" s="44" customFormat="1">
       <c r="A78" s="38"/>
@@ -8392,7 +8348,7 @@
       <c r="H78" s="66"/>
       <c r="I78" s="68"/>
       <c r="J78" s="69"/>
-      <c r="K78" s="77"/>
+      <c r="K78" s="78"/>
       <c r="L78" s="77"/>
     </row>
     <row r="79" spans="1:13" s="44" customFormat="1">
@@ -8401,13 +8357,14 @@
       <c r="C79" s="69"/>
       <c r="D79" s="66"/>
       <c r="E79" s="77"/>
-      <c r="F79" s="67"/>
+      <c r="F79" s="77"/>
       <c r="G79" s="77"/>
       <c r="H79" s="66"/>
       <c r="I79" s="68"/>
       <c r="J79" s="69"/>
       <c r="K79" s="78"/>
       <c r="L79" s="77"/>
+      <c r="M79" s="37"/>
     </row>
     <row r="80" spans="1:13" s="44" customFormat="1">
       <c r="A80" s="38"/>
@@ -8424,7 +8381,7 @@
       <c r="L80" s="77"/>
       <c r="M80" s="37"/>
     </row>
-    <row r="81" spans="1:13" s="44" customFormat="1">
+    <row r="81" spans="1:13">
       <c r="A81" s="38"/>
       <c r="B81" s="38"/>
       <c r="C81" s="69"/>
@@ -8437,38 +8394,38 @@
       <c r="J81" s="69"/>
       <c r="K81" s="78"/>
       <c r="L81" s="77"/>
-      <c r="M81" s="37"/>
+      <c r="M81" s="44"/>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="77"/>
-      <c r="M82" s="44"/>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="70"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71"/>
-      <c r="H83" s="71"/>
-      <c r="I83" s="71"/>
-      <c r="J83" s="71"/>
-      <c r="K83" s="71"/>
-      <c r="L83" s="70"/>
-    </row>
-    <row r="84" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A82" s="70"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
+      <c r="I82" s="71"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="70"/>
+    </row>
+    <row r="83" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="78"/>
+      <c r="L83" s="77"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="38"/>
       <c r="B84" s="38"/>
       <c r="C84" s="69"/>
@@ -8481,35 +8438,34 @@
       <c r="J84" s="69"/>
       <c r="K84" s="78"/>
       <c r="L84" s="77"/>
-      <c r="M84" s="37"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="68"/>
-      <c r="J85" s="69"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="77"/>
+      <c r="A85" s="70"/>
+      <c r="B85" s="70"/>
+      <c r="C85" s="70"/>
+      <c r="D85" s="70"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
+      <c r="H85" s="71"/>
+      <c r="I85" s="71"/>
+      <c r="J85" s="71"/>
+      <c r="K85" s="71"/>
+      <c r="L85" s="70"/>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="70"/>
-      <c r="B86" s="70"/>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="71"/>
-      <c r="F86" s="71"/>
-      <c r="G86" s="71"/>
-      <c r="H86" s="71"/>
-      <c r="I86" s="71"/>
-      <c r="J86" s="71"/>
-      <c r="K86" s="71"/>
-      <c r="L86" s="70"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="69"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="68"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="78"/>
+      <c r="L86" s="77"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="38"/>
@@ -8524,81 +8480,82 @@
       <c r="J87" s="69"/>
       <c r="K87" s="78"/>
       <c r="L87" s="77"/>
+      <c r="M87" s="44"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="78"/>
-      <c r="L88" s="77"/>
-      <c r="M88" s="44"/>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="70"/>
-      <c r="B89" s="70"/>
-      <c r="C89" s="70"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71"/>
-      <c r="H89" s="71"/>
-      <c r="I89" s="71"/>
-      <c r="J89" s="71"/>
-      <c r="K89" s="71"/>
-      <c r="L89" s="70"/>
-    </row>
-    <row r="90" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A88" s="70"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+      <c r="I88" s="71"/>
+      <c r="J88" s="71"/>
+      <c r="K88" s="71"/>
+      <c r="L88" s="70"/>
+    </row>
+    <row r="89" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A89" s="65"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="79"/>
+      <c r="K89" s="67"/>
+      <c r="L89" s="67"/>
+      <c r="M89" s="37"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="65"/>
       <c r="B90" s="74"/>
       <c r="C90" s="66"/>
       <c r="D90" s="66"/>
       <c r="E90" s="67"/>
       <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
+      <c r="G90" s="72"/>
       <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="79"/>
+      <c r="I90" s="68"/>
+      <c r="J90" s="69"/>
       <c r="K90" s="67"/>
       <c r="L90" s="67"/>
-      <c r="M90" s="37"/>
+      <c r="M90" s="44"/>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="65"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="72"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="69"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="44"/>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="71"/>
-      <c r="L92" s="70"/>
-    </row>
-    <row r="93" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A91" s="70"/>
+      <c r="B91" s="70"/>
+      <c r="C91" s="70"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
+      <c r="H91" s="71"/>
+      <c r="I91" s="71"/>
+      <c r="J91" s="71"/>
+      <c r="K91" s="71"/>
+      <c r="L91" s="70"/>
+    </row>
+    <row r="92" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
+      <c r="M92" s="37"/>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="38"/>
       <c r="B93" s="38"/>
       <c r="C93" s="38"/>
@@ -8611,7 +8568,7 @@
       <c r="J93" s="38"/>
       <c r="K93" s="38"/>
       <c r="L93" s="38"/>
-      <c r="M93" s="37"/>
+      <c r="M93" s="44"/>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="38"/>
@@ -8628,7 +8585,7 @@
       <c r="L94" s="38"/>
       <c r="M94" s="44"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A95" s="38"/>
       <c r="B95" s="38"/>
       <c r="C95" s="38"/>
@@ -8641,7 +8598,7 @@
       <c r="J95" s="38"/>
       <c r="K95" s="38"/>
       <c r="L95" s="38"/>
-      <c r="M95" s="44"/>
+      <c r="M95" s="37"/>
     </row>
     <row r="96" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A96" s="38"/>
@@ -8658,7 +8615,7 @@
       <c r="L96" s="38"/>
       <c r="M96" s="37"/>
     </row>
-    <row r="97" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="97" spans="1:12">
       <c r="A97" s="38"/>
       <c r="B97" s="38"/>
       <c r="C97" s="38"/>
@@ -8671,9 +8628,8 @@
       <c r="J97" s="38"/>
       <c r="K97" s="38"/>
       <c r="L97" s="38"/>
-      <c r="M97" s="37"/>
-    </row>
-    <row r="98" spans="1:13">
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="38"/>
       <c r="B98" s="38"/>
       <c r="C98" s="38"/>
@@ -8687,7 +8643,7 @@
       <c r="K98" s="38"/>
       <c r="L98" s="38"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:12">
       <c r="A99" s="38"/>
       <c r="B99" s="38"/>
       <c r="C99" s="38"/>
@@ -8701,7 +8657,7 @@
       <c r="K99" s="38"/>
       <c r="L99" s="38"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:12">
       <c r="A100" s="38"/>
       <c r="B100" s="38"/>
       <c r="C100" s="38"/>
@@ -8715,7 +8671,7 @@
       <c r="K100" s="38"/>
       <c r="L100" s="38"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:12">
       <c r="A101" s="38"/>
       <c r="B101" s="38"/>
       <c r="C101" s="38"/>
@@ -8729,27 +8685,27 @@
       <c r="K101" s="38"/>
       <c r="L101" s="38"/>
     </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-    </row>
-    <row r="103" spans="1:13">
+    <row r="102" spans="1:12">
+      <c r="A102" s="65"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="67"/>
+      <c r="G102" s="72"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="68"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="65"/>
-      <c r="B103" s="74"/>
+      <c r="B103" s="66"/>
       <c r="C103" s="66"/>
       <c r="D103" s="66"/>
       <c r="E103" s="72"/>
-      <c r="F103" s="67"/>
+      <c r="F103" s="72"/>
       <c r="G103" s="72"/>
       <c r="H103" s="66"/>
       <c r="I103" s="68"/>
@@ -8757,29 +8713,15 @@
       <c r="K103" s="67"/>
       <c r="L103" s="67"/>
     </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="65"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="72"/>
-      <c r="F104" s="72"/>
-      <c r="G104" s="72"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="68"/>
-      <c r="J104" s="69"/>
-      <c r="K104" s="67"/>
-      <c r="L104" s="67"/>
-    </row>
-    <row r="105" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="106" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="107" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="108" spans="1:13" ht="37.5" customHeight="1"/>
-    <row r="110" spans="1:13" ht="18" customHeight="1"/>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1"/>
-    <row r="115" ht="30" customHeight="1"/>
-    <row r="119" ht="44.25" customHeight="1"/>
-    <row r="120" ht="45" customHeight="1"/>
+    <row r="104" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="105" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="106" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="107" spans="1:12" ht="37.5" customHeight="1"/>
+    <row r="109" spans="1:12" ht="18" customHeight="1"/>
+    <row r="110" spans="1:12" ht="15.75" customHeight="1"/>
+    <row r="114" ht="30" customHeight="1"/>
+    <row r="118" ht="44.25" customHeight="1"/>
+    <row r="119" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -8797,19 +8739,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I89 I58 I86 I83 I77 I92">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I88 I57 I85 I82 I76 I91">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J89 J58 J86 J83 J77 J92">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J88 J57 J85 J82 J76 J91">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H103:H104 H91:H92 H8:H13 H34:H89 H25:H32 H16:H23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H102:H103 H90:H91 H8:H13 H33:H88 H16:H23 H25:H31">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I103:I104 I59:I76 I87:I88 I84:I85 I78:I82 I91 I8:I13 I34:I57 I25:I32 I16:I23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I102:I103 I58:I75 I86:I87 I83:I84 I77:I81 I90 I8:I13 I33:I56 I16:I23 I25:I31">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J78:J82 J84:J85 J91 J87:J88 J59:J76 J103:J104 J8:J13 J34:J57 J25:J32 J16:J23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J77:J81 J83:J84 J90 J86:J87 J58:J75 J102:J103 J8:J13 J33:J56 J16:J23 J25:J31">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8823,8 +8765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="212">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1061,9 +1061,6 @@
     <t>Input kanji  in "Chữ Hán" textbox</t>
   </si>
   <si>
-    <t>Input type of word  in "Loại từ" textbox</t>
-  </si>
-  <si>
     <t>Input word  in "Nhập từ" textbox</t>
   </si>
   <si>
@@ -1207,28 +1204,34 @@
 - Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
-    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
-  </si>
-  <si>
     <t xml:space="preserve">Word that user input is displayed </t>
   </si>
   <si>
     <t>- Display full item (Contribute vocabulary, grammar, kanji)
-- Title is centered
+- Title is centered and color is blue
 - All items is left-aligned
 - Text's color is black</t>
   </si>
   <si>
     <t>- Display full item
-- Title is centered
+- Title is centered, color is blue
 - All items (text and textbox, button) is left-aligned
 - Text's color is black and  required fields marked in red</t>
   </si>
   <si>
     <t>- Display full item
-- Title is centered
+- Title is centered, color is blue
 - All items (text and textbox, button) is left-aligned
 - - Text's color is black and  required fields marked in red</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose type of word  in "Loại từ" </t>
+  </si>
+  <si>
+    <t>Word that user choose is displayed</t>
   </si>
 </sst>
 </file>
@@ -3733,22 +3736,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>209551</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="8" name="Picture 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3768,76 +3771,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4743450" y="2152650"/>
-          <a:ext cx="3295650" cy="3943350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8867775" y="2152650"/>
-          <a:ext cx="2724150" cy="3943349"/>
+          <a:off x="4324351" y="2200275"/>
+          <a:ext cx="3705224" cy="3971925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,20 +3793,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>56994</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="171450" y="2247900"/>
+          <a:ext cx="3314544" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3891,8 +3881,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="790575" y="2190750"/>
-          <a:ext cx="3248025" cy="2876550"/>
+          <a:off x="8905874" y="2126414"/>
+          <a:ext cx="3381375" cy="4121986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6834,8 +6824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7028,7 +7018,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="70.5" customHeight="1">
@@ -7056,7 +7046,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="77.25" customHeight="1">
@@ -7084,7 +7074,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1" ht="74.25" customHeight="1">
@@ -7112,7 +7102,7 @@
         <v>41</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="44" customFormat="1" ht="73.5" customHeight="1">
@@ -7140,7 +7130,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1">
@@ -7170,7 +7160,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -7201,10 +7191,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -7229,13 +7219,13 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="44" customFormat="1" ht="27">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="44" customFormat="1" ht="20.25" customHeight="1">
       <c r="A18" s="47"/>
       <c r="B18" s="48"/>
       <c r="C18" s="49" t="s">
@@ -7260,7 +7250,7 @@
         <v>158</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
@@ -7288,7 +7278,7 @@
         <v>157</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
@@ -7316,7 +7306,7 @@
         <v>156</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1">
@@ -7347,7 +7337,7 @@
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7359,17 +7349,17 @@
         <v>37</v>
       </c>
       <c r="K22" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="56" t="s">
         <v>163</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
@@ -7379,22 +7369,22 @@
       <c r="I23" s="57"/>
       <c r="J23" s="58"/>
       <c r="K23" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="61"/>
       <c r="F24" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7407,13 +7397,13 @@
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="56"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7425,23 +7415,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="56"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7453,23 +7443,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="35.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="64"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7481,17 +7471,17 @@
         <v>37</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="64"/>
@@ -7512,19 +7502,19 @@
         <v>156</v>
       </c>
       <c r="L28" s="62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D29" s="60"/>
       <c r="E29" s="61"/>
       <c r="F29" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
@@ -7537,13 +7527,13 @@
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7555,17 +7545,17 @@
         <v>37</v>
       </c>
       <c r="K30" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="56" t="s">
         <v>163</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D31" s="60"/>
       <c r="E31" s="64"/>
@@ -7575,22 +7565,22 @@
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="L31" s="56" t="s">
         <v>200</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="61"/>
       <c r="F32" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -7603,7 +7593,7 @@
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="56"/>
@@ -7624,20 +7614,20 @@
         <v>155</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="56"/>
       <c r="F34" s="62"/>
       <c r="G34" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>35</v>
@@ -7649,23 +7639,23 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D35" s="60"/>
       <c r="E35" s="64"/>
       <c r="F35" s="63"/>
       <c r="G35" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>35</v>
@@ -7677,23 +7667,23 @@
         <v>37</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L35" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="64"/>
       <c r="F36" s="63"/>
       <c r="G36" s="63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H36" s="49" t="s">
         <v>35</v>
@@ -7705,23 +7695,23 @@
         <v>37</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L36" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D37" s="60"/>
       <c r="E37" s="64"/>
       <c r="F37" s="63"/>
       <c r="G37" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H37" s="49" t="s">
         <v>35</v>
@@ -7733,17 +7723,17 @@
         <v>37</v>
       </c>
       <c r="K37" s="56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L37" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="64"/>
@@ -7764,19 +7754,19 @@
         <v>156</v>
       </c>
       <c r="L38" s="62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D39" s="60"/>
       <c r="E39" s="61"/>
       <c r="F39" s="51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
@@ -7789,13 +7779,13 @@
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="63"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H40" s="49" t="s">
         <v>35</v>
@@ -7807,17 +7797,17 @@
         <v>37</v>
       </c>
       <c r="K40" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="L40" s="56" t="s">
         <v>163</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="63"/>
@@ -7827,10 +7817,10 @@
       <c r="I41" s="57"/>
       <c r="J41" s="58"/>
       <c r="K41" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="L41" s="56" t="s">
         <v>200</v>
-      </c>
-      <c r="L41" s="56" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
@@ -8765,8 +8755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
+++ b/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Contribute content_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="11760" windowHeight="5430"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -995,9 +995,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1232,6 +1229,9 @@
   </si>
   <si>
     <t>Word that user choose is displayed</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3231,6 +3231,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3251,24 +3269,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6587,8 +6587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6607,14 +6607,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6629,12 +6629,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6646,12 +6646,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6660,28 +6660,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6704,10 +6704,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6723,12 +6723,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6737,13 +6737,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6751,8 +6751,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6760,8 +6760,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6769,8 +6769,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6778,8 +6778,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6787,8 +6787,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6796,6 +6796,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6803,12 +6809,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6824,7 +6824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A23" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -7018,7 +7018,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="70.5" customHeight="1">
@@ -7046,20 +7046,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="77.25" customHeight="1">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -7074,20 +7074,20 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1" ht="74.25" customHeight="1">
       <c r="A12" s="47"/>
       <c r="B12" s="48"/>
       <c r="C12" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
       <c r="G12" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="49" t="s">
         <v>35</v>
@@ -7102,20 +7102,20 @@
         <v>41</v>
       </c>
       <c r="L12" s="59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="44" customFormat="1" ht="73.5" customHeight="1">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="56"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -7130,7 +7130,7 @@
         <v>41</v>
       </c>
       <c r="L13" s="59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1">
@@ -7160,7 +7160,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -7179,7 +7179,7 @@
       <c r="E16" s="56"/>
       <c r="F16" s="62"/>
       <c r="G16" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -7191,10 +7191,10 @@
         <v>37</v>
       </c>
       <c r="K16" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -7207,7 +7207,7 @@
       <c r="E17" s="56"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -7219,10 +7219,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="L17" s="62" t="s">
         <v>210</v>
-      </c>
-      <c r="L17" s="62" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="20.25" customHeight="1">
@@ -7235,7 +7235,7 @@
       <c r="E18" s="64"/>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18" s="49" t="s">
         <v>35</v>
@@ -7247,10 +7247,10 @@
         <v>37</v>
       </c>
       <c r="K18" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L18" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="32.25" customHeight="1">
@@ -7263,7 +7263,7 @@
       <c r="E19" s="64"/>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" s="49" t="s">
         <v>35</v>
@@ -7275,23 +7275,23 @@
         <v>37</v>
       </c>
       <c r="K19" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L19" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="64"/>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>35</v>
@@ -7303,10 +7303,10 @@
         <v>37</v>
       </c>
       <c r="K20" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L20" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="44" customFormat="1" ht="23.25" customHeight="1">
@@ -7318,7 +7318,7 @@
       <c r="D21" s="60"/>
       <c r="E21" s="61"/>
       <c r="F21" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -7337,7 +7337,7 @@
       <c r="E22" s="63"/>
       <c r="F22" s="56"/>
       <c r="G22" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H22" s="49" t="s">
         <v>35</v>
@@ -7349,17 +7349,17 @@
         <v>37</v>
       </c>
       <c r="K22" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="63"/>
@@ -7369,22 +7369,22 @@
       <c r="I23" s="57"/>
       <c r="J23" s="58"/>
       <c r="K23" s="59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" s="56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1" ht="39" customHeight="1">
       <c r="A24" s="47"/>
       <c r="B24" s="48"/>
       <c r="C24" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="61"/>
       <c r="F24" s="51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -7397,13 +7397,13 @@
       <c r="A25" s="47"/>
       <c r="B25" s="48"/>
       <c r="C25" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="56"/>
       <c r="F25" s="62"/>
       <c r="G25" s="62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H25" s="49" t="s">
         <v>35</v>
@@ -7415,23 +7415,23 @@
         <v>37</v>
       </c>
       <c r="K25" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L25" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
       <c r="C26" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="56"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H26" s="49" t="s">
         <v>35</v>
@@ -7443,23 +7443,23 @@
         <v>37</v>
       </c>
       <c r="K26" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="44" customFormat="1" ht="35.25" customHeight="1">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="64"/>
       <c r="F27" s="63"/>
       <c r="G27" s="63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H27" s="49" t="s">
         <v>35</v>
@@ -7471,23 +7471,23 @@
         <v>37</v>
       </c>
       <c r="K27" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1" ht="36.75" customHeight="1">
       <c r="A28" s="47"/>
       <c r="B28" s="48"/>
       <c r="C28" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="64"/>
       <c r="F28" s="63"/>
       <c r="G28" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="49" t="s">
         <v>35</v>
@@ -7499,22 +7499,22 @@
         <v>37</v>
       </c>
       <c r="K28" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L28" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1" ht="21.75" customHeight="1">
       <c r="A29" s="47"/>
       <c r="B29" s="48"/>
       <c r="C29" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D29" s="60"/>
       <c r="E29" s="61"/>
       <c r="F29" s="51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
@@ -7527,13 +7527,13 @@
       <c r="A30" s="47"/>
       <c r="B30" s="48"/>
       <c r="C30" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="63"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H30" s="49" t="s">
         <v>35</v>
@@ -7545,17 +7545,17 @@
         <v>37</v>
       </c>
       <c r="K30" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A31" s="47"/>
       <c r="B31" s="48"/>
       <c r="C31" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="60"/>
       <c r="E31" s="64"/>
@@ -7565,22 +7565,22 @@
       <c r="I31" s="57"/>
       <c r="J31" s="58"/>
       <c r="K31" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="L31" s="56" t="s">
         <v>199</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:12" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A32" s="47"/>
       <c r="B32" s="48"/>
       <c r="C32" s="49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D32" s="60"/>
       <c r="E32" s="61"/>
       <c r="F32" s="51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -7593,13 +7593,13 @@
       <c r="A33" s="47"/>
       <c r="B33" s="48"/>
       <c r="C33" s="49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="56"/>
       <c r="F33" s="62"/>
       <c r="G33" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="49" t="s">
         <v>35</v>
@@ -7611,23 +7611,23 @@
         <v>37</v>
       </c>
       <c r="K33" s="56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L33" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48"/>
       <c r="C34" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="56"/>
       <c r="F34" s="62"/>
       <c r="G34" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="49" t="s">
         <v>35</v>
@@ -7639,23 +7639,23 @@
         <v>37</v>
       </c>
       <c r="K34" s="56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L34" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="44" customFormat="1" ht="28.5" customHeight="1">
       <c r="A35" s="47"/>
       <c r="B35" s="48"/>
       <c r="C35" s="49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="60"/>
       <c r="E35" s="64"/>
       <c r="F35" s="63"/>
       <c r="G35" s="63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>35</v>
@@ -7667,23 +7667,23 @@
         <v>37</v>
       </c>
       <c r="K35" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L35" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A36" s="47"/>
       <c r="B36" s="48"/>
       <c r="C36" s="49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D36" s="60"/>
       <c r="E36" s="64"/>
       <c r="F36" s="63"/>
       <c r="G36" s="63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H36" s="49" t="s">
         <v>35</v>
@@ -7695,23 +7695,23 @@
         <v>37</v>
       </c>
       <c r="K36" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L36" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="44" customFormat="1" ht="33.75" customHeight="1">
       <c r="A37" s="47"/>
       <c r="B37" s="48"/>
       <c r="C37" s="49" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D37" s="60"/>
       <c r="E37" s="64"/>
       <c r="F37" s="63"/>
       <c r="G37" s="63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H37" s="49" t="s">
         <v>35</v>
@@ -7723,23 +7723,23 @@
         <v>37</v>
       </c>
       <c r="K37" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L37" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A38" s="47"/>
       <c r="B38" s="48"/>
       <c r="C38" s="49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D38" s="60"/>
       <c r="E38" s="64"/>
       <c r="F38" s="63"/>
       <c r="G38" s="63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H38" s="49" t="s">
         <v>35</v>
@@ -7751,22 +7751,22 @@
         <v>37</v>
       </c>
       <c r="K38" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L38" s="62" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:12" s="44" customFormat="1">
       <c r="A39" s="47"/>
       <c r="B39" s="48"/>
       <c r="C39" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D39" s="60"/>
       <c r="E39" s="61"/>
       <c r="F39" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
@@ -7779,13 +7779,13 @@
       <c r="A40" s="47"/>
       <c r="B40" s="48"/>
       <c r="C40" s="48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="63"/>
       <c r="F40" s="56"/>
       <c r="G40" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H40" s="49" t="s">
         <v>35</v>
@@ -7797,17 +7797,17 @@
         <v>37</v>
       </c>
       <c r="K40" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="L40" s="56" t="s">
         <v>162</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="44" customFormat="1" ht="27">
       <c r="A41" s="47"/>
       <c r="B41" s="48"/>
       <c r="C41" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="63"/>
@@ -7817,10 +7817,10 @@
       <c r="I41" s="57"/>
       <c r="J41" s="58"/>
       <c r="K41" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="L41" s="56" t="s">
         <v>199</v>
-      </c>
-      <c r="L41" s="56" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="44" customFormat="1">
@@ -8763,7 +8763,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
